--- a/bots/crawl_ch/output/toilet_coop_2022-08-28.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-08-28.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:00</t>
+          <t>2022-08-28 20:56:49</t>
         </is>
       </c>
     </row>
